--- a/src/pdsys/src/main/resources/files/iotemplates/工具模板_原包材仓库导入.xlsx
+++ b/src/pdsys/src/main/resources/files/iotemplates/工具模板_原包材仓库导入.xlsx
@@ -87,16 +87,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -209,33 +220,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,140 +536,141 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N81" sqref="N81"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>13</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>14</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>17</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>18</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.74990626395218019" right="0.74990626395218019" top="0.99987495602585208" bottom="0.99987495602585208" header="0.50896415560264285" footer="0.50896415560264285"/>
-  <pageSetup paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>